--- a/SSAL_ClueLayoutExcel.xlsx
+++ b/SSAL_ClueLayoutExcel.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI306\workspace\ClueGameSSAL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32100" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="28">
   <si>
     <t>G</t>
   </si>
@@ -105,6 +101,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3383,7 +3382,9 @@
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
       <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
+      <c r="Y32" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="Z32" s="19"/>
       <c r="AA32" s="19"/>
       <c r="AB32" s="19"/>

--- a/SSAL_ClueLayoutExcel.xlsx
+++ b/SSAL_ClueLayoutExcel.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI306\workspace\ClueGameSSALV2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="32100" windowHeight="10320"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -602,7 +606,7 @@
   <dimension ref="A1:AT97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y32" sqref="Y32"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
